--- a/docs/excel/TCharacterLevel.xlsx
+++ b/docs/excel/TCharacterLevel.xlsx
@@ -1,18 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CITY\project\treasure\docs\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="TLevel" sheetId="1" r:id="rId1"/>
+    <sheet name="TCharacterLevel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -138,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -552,7 +547,7 @@
   <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TCharacterLevel.xlsx
+++ b/docs/excel/TCharacterLevel.xlsx
@@ -10,12 +10,12 @@
     <sheet name="TCharacterLevel" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,54 +603,45 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <f>B4/10</f>
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C52" si="0">B5/10</f>
-        <v>2</v>
+        <f>B5/10</f>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -654,17 +649,18 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="C6:C53" si="0">B6/10</f>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -675,14 +671,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -693,35 +689,35 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -729,14 +725,14 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -747,14 +743,14 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -765,14 +761,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -783,17 +779,17 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -801,14 +797,14 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <v>250</v>
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>30</v>
@@ -819,14 +815,14 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>300</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>250</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>30</v>
@@ -837,14 +833,14 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -855,14 +851,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <v>400</v>
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>350</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>30</v>
@@ -873,32 +869,32 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>450</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>400</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>35</v>
@@ -909,14 +905,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>600</v>
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>500</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>35</v>
@@ -927,14 +923,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>700</v>
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>600</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>35</v>
@@ -945,14 +941,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <v>800</v>
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>700</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>35</v>
@@ -963,17 +959,17 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>900</v>
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>800</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -981,14 +977,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1000</v>
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>900</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>40</v>
@@ -999,14 +995,14 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>1500</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1000</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>40</v>
@@ -1017,14 +1013,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2000</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>1500</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D26">
         <v>40</v>
@@ -1035,14 +1031,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D27">
         <v>40</v>
@@ -1053,32 +1049,32 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>3000</v>
+        <v>24</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2500</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3500</v>
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>3000</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D29">
         <v>45</v>
@@ -1089,14 +1085,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="D30">
         <v>45</v>
@@ -1107,14 +1103,14 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>4500</v>
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4000</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D31">
         <v>45</v>
@@ -1125,14 +1121,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5000</v>
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>4500</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D32">
         <v>45</v>
@@ -1143,17 +1139,17 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -1161,14 +1157,14 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>7000</v>
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6000</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -1179,14 +1175,14 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1">
-        <v>8000</v>
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>7000</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -1197,14 +1193,14 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>9000</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8000</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D36">
         <v>50</v>
@@ -1215,14 +1211,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>10000</v>
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>9000</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D37">
         <v>50</v>
@@ -1233,17 +1229,17 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>11000</v>
+        <v>34</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10000</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -1251,14 +1247,14 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>12000</v>
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>11000</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D39">
         <v>55</v>
@@ -1269,14 +1265,14 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>13000</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="1">
+        <v>12000</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D40">
         <v>55</v>
@@ -1287,14 +1283,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1">
-        <v>14000</v>
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>13000</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D41">
         <v>55</v>
@@ -1305,14 +1301,14 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>15000</v>
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>14000</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D42">
         <v>55</v>
@@ -1323,32 +1319,32 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1">
-        <v>16000</v>
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>15000</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D43">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>17000</v>
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>16000</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="D44">
         <v>60</v>
@@ -1359,14 +1355,14 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" s="1">
-        <v>18000</v>
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>17000</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="D45">
         <v>60</v>
@@ -1377,14 +1373,14 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>19000</v>
+        <v>42</v>
+      </c>
+      <c r="B46" s="1">
+        <v>18000</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="D46">
         <v>60</v>
@@ -1395,14 +1391,14 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" s="1">
-        <v>20000</v>
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>19000</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="D47">
         <v>60</v>
@@ -1413,17 +1409,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>21000</v>
+        <v>44</v>
+      </c>
+      <c r="B48" s="1">
+        <v>20000</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="D48">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -1431,14 +1427,14 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1">
-        <v>22000</v>
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>21000</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="D49">
         <v>65</v>
@@ -1449,14 +1445,14 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="B50">
-        <v>23000</v>
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>22000</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="D50">
         <v>65</v>
@@ -1467,14 +1463,14 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51" s="1">
-        <v>24000</v>
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>23000</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="D51">
         <v>65</v>
@@ -1485,14 +1481,14 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="B52">
-        <v>25000</v>
+        <v>48</v>
+      </c>
+      <c r="B52" s="1">
+        <v>24000</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="D52">
         <v>65</v>
@@ -1503,23 +1499,38 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>25000</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="D53">
+        <v>65</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>50</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B54" s="1">
         <v>0</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>2500</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>70</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55"/>
@@ -1559,833 +1570,836 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
-      <c r="B67"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
+      <c r="B68"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
-      <c r="B69"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
+      <c r="B70"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
-      <c r="B71"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
+      <c r="B72"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
-      <c r="B73"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
+      <c r="B74"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
-      <c r="B75"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
+      <c r="B76"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
-      <c r="B77"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
+      <c r="B78"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
-      <c r="B79"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
+      <c r="B80"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
-      <c r="B81"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
+      <c r="B82"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
-      <c r="B83"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
+      <c r="B84"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
-      <c r="B85"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
+      <c r="B86"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
-      <c r="B87"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
+      <c r="B88"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
-      <c r="B89"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
+      <c r="B90"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
-      <c r="B91"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
+      <c r="B92"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
-      <c r="B93"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
+      <c r="B94"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
-      <c r="B95"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
+      <c r="B96"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
-      <c r="B97"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
+      <c r="B98"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
-      <c r="B99"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
+      <c r="B100"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
-      <c r="B101"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
+      <c r="B102"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
-      <c r="B103"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
+      <c r="B104"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
-      <c r="B105"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
+      <c r="B106"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
-      <c r="B107"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
+      <c r="B108"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
-      <c r="B109"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
+      <c r="B110"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
-      <c r="B111"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
+      <c r="B112"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
-      <c r="B113"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
+      <c r="B114"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
-      <c r="B115"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
+      <c r="B116"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
-      <c r="B117"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
+      <c r="B118"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
-      <c r="B119"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
+      <c r="B120"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
-      <c r="B121"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
+      <c r="B122"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
-      <c r="B123"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
+      <c r="B124"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
-      <c r="B125"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
+      <c r="B126"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
-      <c r="B127"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
+      <c r="B128"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
-      <c r="B129"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
+      <c r="B130"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
-      <c r="B131"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
+      <c r="B132"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
-      <c r="B133"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
+      <c r="B134"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
-      <c r="B135"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
+      <c r="B136"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
-      <c r="B137"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
+      <c r="B138"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
-      <c r="B139"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
+      <c r="B140"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
-      <c r="B141"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
+      <c r="B142"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
-      <c r="B143"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
+      <c r="B144"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
-      <c r="B145"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
+      <c r="B146"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
-      <c r="B147"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
+      <c r="B148"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
-      <c r="B149"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
+      <c r="B150"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
-      <c r="B151"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
+      <c r="B152"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
-      <c r="B153"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
+      <c r="B154"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
-      <c r="B155"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
+      <c r="B156"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
-      <c r="B157"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
+      <c r="B158"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
-      <c r="B159"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
+      <c r="B160"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
-      <c r="B161"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
+      <c r="B162"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
-      <c r="B163"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
+      <c r="B164"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
-      <c r="B165"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
+      <c r="B166"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
-      <c r="B167"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
+      <c r="B168"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
-      <c r="B169"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
+      <c r="B170"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
-      <c r="B171"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
+      <c r="B172"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
-      <c r="B173"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
+      <c r="B174"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
-      <c r="B175"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
+      <c r="B176"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
-      <c r="B177"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
+      <c r="B178"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
-      <c r="B179"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
+      <c r="B180"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
-      <c r="B181"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
+      <c r="B182"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
-      <c r="B183"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
+      <c r="B184"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
-      <c r="B185"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
+      <c r="B186"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
-      <c r="B187"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
+      <c r="B188"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
-      <c r="B189"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
+      <c r="B190"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
-      <c r="B191"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
+      <c r="B192"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
-      <c r="B193"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
+      <c r="B194"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
-      <c r="B195"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
+      <c r="B196"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
-      <c r="B197"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
+      <c r="B198"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
-      <c r="B199"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
+      <c r="B200"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
-      <c r="B201"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
+      <c r="B202"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
-      <c r="B203"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
+      <c r="B204"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
-      <c r="B205"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
+      <c r="B206"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
-      <c r="B207"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
+      <c r="B208"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
-      <c r="B209"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
+      <c r="B210"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
-      <c r="B211"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
+      <c r="B212"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
-      <c r="B213"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
+      <c r="B214"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
-      <c r="B215"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
+      <c r="B216"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
-      <c r="B217"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
+      <c r="B218"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
-      <c r="B219"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
+      <c r="B220"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
-      <c r="B221"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
+      <c r="B222"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
-      <c r="B223"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
+      <c r="B224"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
-      <c r="B225"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
+      <c r="B226"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
-      <c r="B227"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
+      <c r="B228"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
-      <c r="B229"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
+      <c r="B230"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
-      <c r="B231"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
+      <c r="B232"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
-      <c r="B233"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
+      <c r="B234"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
-      <c r="B235"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
+      <c r="B236"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
-      <c r="B237"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
+      <c r="B238"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
-      <c r="B239"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
+      <c r="B240"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
-      <c r="B241"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
+      <c r="B242"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
-      <c r="B243"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
+      <c r="B244"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
-      <c r="B245"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
+      <c r="B246"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
-      <c r="B247"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
+      <c r="B248"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
-      <c r="B249"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
+      <c r="B250"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
-      <c r="B251"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
+      <c r="B252"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
-      <c r="B253"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
+      <c r="B254"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
-      <c r="B255"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
+      <c r="B256"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
-      <c r="B257"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
+      <c r="B258"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
-      <c r="B259"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
+      <c r="B260"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
-      <c r="B261"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
+      <c r="B262"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
-      <c r="B263"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
+      <c r="B264"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
-      <c r="B265"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
+      <c r="B266"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
-      <c r="B267"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
+      <c r="B268"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
-      <c r="B269"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
+      <c r="B270"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
-      <c r="B271"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
+      <c r="B272"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
-      <c r="B273"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
+      <c r="B274"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
-      <c r="B275"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
+      <c r="B276"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
-      <c r="B277"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
+      <c r="B278"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
-      <c r="B279"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
+      <c r="B280"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
-      <c r="B281"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
+      <c r="B282"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
-      <c r="B283"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
+      <c r="B284"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
-      <c r="B285"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
+      <c r="B286"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
-      <c r="B287"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
+      <c r="B288"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
-      <c r="B289"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
+      <c r="B290"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
-      <c r="B291"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
+      <c r="B292"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
-      <c r="B293"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
+      <c r="B294"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
-      <c r="B295"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
+      <c r="B296"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
-      <c r="B297"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
+      <c r="B298"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
-      <c r="B299"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
+      <c r="B300"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
-      <c r="B301"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
+      <c r="B302"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
-      <c r="B303"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304"/>
+      <c r="B304"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
